--- a/bots/crawl_ch/output/electronics_2022-09-07.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-07.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -1451,29 +1451,29 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>7032801</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>16ST</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1512,34 +1512,34 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1553,17 +1553,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1588,34 +1588,34 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7032801</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1624,17 +1624,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1654,39 +1654,39 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>7032804</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>16ST</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1725,39 +1725,39 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6753556</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1796,58 +1796,60 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7032804</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16ST</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1857,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1867,60 +1869,58 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6753556</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2577,50 +2577,50 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.98/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2640,60 +2640,60 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.98/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2713,17 +2713,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -3828,24 +3828,24 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3855,12 +3855,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3869,40 +3869,42 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3911,7 +3913,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>26.20</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3920,34 +3922,34 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 25% Aktion 26.20 Schweizer Franken statt 34.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3957,12 +3959,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3976,37 +3978,35 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>3</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>26.20</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -4024,122 +4024,102 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 25% Aktion 26.20 Schweizer Franken statt 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4148,70 +4128,90 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 25% Aktion 22.45 Schweizer Franken statt 29.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4548,31 +4548,27 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>6805078</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Premium Light F20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
         <v>0</v>
@@ -4584,59 +4580,43 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Premium Light F20 - Online kein Bestand 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4644,11 +4624,9 @@
           <t>4ST</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4657,12 +4635,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4672,7 +4650,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4687,80 +4665,102 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>44.95</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6805078</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4770,12 +4770,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4784,17 +4784,17 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Active LED Camping Lanterne 38.50 Schweizer Franken</t>
+          <t>Varta Active LED Camping Lanterne - Online kein Bestand 38.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:43</t>
+          <t>2022-09-07 21:02:10</t>
         </is>
       </c>
     </row>
